--- a/data-raw/ACS CSI template.xlsx
+++ b/data-raw/ACS CSI template.xlsx
@@ -8,30 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07c4d937b78de3ca/IMPROVAST/ACS/CSIemail/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="14_{40B8D122-23C5-4AB3-8CD0-39323D64CD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C09F7B-36F6-4E45-ACB4-4D8B9C7FC248}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="14_{40B8D122-23C5-4AB3-8CD0-39323D64CD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D9F9FB-E99C-46A5-8D07-EAA2D0D5DEB2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">CSI!$1:$13</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Cash Sales Invoice</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time:</t>
   </si>
   <si>
     <t>Date From:</t>
@@ -40,23 +31,23 @@
     <t>Date To:</t>
   </si>
   <si>
-    <t>Store</t>
+    <t>ACS CYPRUS</t>
   </si>
   <si>
-    <t>Store Code</t>
+    <t>Created at:</t>
   </si>
   <si>
-    <t>ACS CYPRUS</t>
+    <t>Store:</t>
+  </si>
+  <si>
+    <t>Store Code:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,22 +72,36 @@
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -116,10 +121,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -128,30 +204,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,89 +552,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
-        <v>7</v>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
